--- a/input_file_v2.xlsx
+++ b/input_file_v2.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://legalmatch1.sharepoint.com/sites/lmphfinanceteam/Shared Documents/Sales Ops/Python/28 Sales rep lead preference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\LM_project\lead_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C1F69F33-95B5-479D-AFE0-97B83540F659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44972A3C-D91B-4178-B6C7-A69738543404}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7FB491-CD00-4D71-96DD-5A91A8A269C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="360" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="3660" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="2" r:id="rId1"/>
     <sheet name="input" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">input!$A$1:$K$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">input!$A$1:$K$279</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ref!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -43,7 +43,7 @@
     <author>tc={65729E34-41BF-40F7-9DD1-7BBCF3DEB2D3}</author>
   </authors>
   <commentList>
-    <comment ref="D100" authorId="0" shapeId="0" xr:uid="{C5DD5FE5-F1C7-44D8-A272-F46980736D9A}">
+    <comment ref="D99" authorId="0" shapeId="0" xr:uid="{C5DD5FE5-F1C7-44D8-A272-F46980736D9A}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="420">
   <si>
     <t>Area of Practice</t>
   </si>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>Natalia Matusik</t>
-  </si>
-  <si>
-    <t>Chidera Anadi-Mbanefo</t>
   </si>
   <si>
     <t>Leonard Kompa</t>
@@ -2210,13 +2207,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K280"/>
+  <dimension ref="A1:K279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,7 +3688,7 @@
         <v>138</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
@@ -3702,7 +3699,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B66" t="s">
         <v>205</v>
@@ -3711,13 +3708,13 @@
         <v>138</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3737,7 +3734,13 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3751,42 +3754,48 @@
         <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B69" t="s">
         <v>208</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3800,25 +3809,16 @@
         <v>137</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s">
-        <v>28</v>
-      </c>
-      <c r="I70" t="s">
-        <v>36</v>
-      </c>
-      <c r="J70" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3829,19 +3829,16 @@
         <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
         <v>26</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3852,16 +3849,16 @@
         <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3872,16 +3869,19 @@
         <v>212</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s">
         <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3895,16 +3895,19 @@
         <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="H74" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3915,42 +3918,42 @@
         <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B76" t="s">
         <v>215</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
         <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3964,18 +3967,12 @@
         <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3987,16 +3984,19 @@
         <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4007,19 +4007,16 @@
         <v>218</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4033,33 +4030,33 @@
         <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B81" t="s">
         <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4073,13 +4070,13 @@
         <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4093,13 +4090,19 @@
         <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="G83" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4113,19 +4116,13 @@
         <v>138</v>
       </c>
       <c r="D84" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
-      <c r="H84" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4145,7 +4142,10 @@
         <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4159,21 +4159,18 @@
         <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E86" t="s">
         <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="B87" t="s">
         <v>226</v>
@@ -4182,13 +4179,13 @@
         <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,16 +4196,22 @@
         <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
         <v>18</v>
       </c>
       <c r="F88" t="s">
         <v>36</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,19 +4225,13 @@
         <v>137</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
-      </c>
-      <c r="G89" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4248,13 +4245,16 @@
         <v>137</v>
       </c>
       <c r="D90" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
       </c>
       <c r="F90" t="s">
         <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
         <v>230</v>
       </c>
       <c r="C91" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
@@ -4277,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4288,10 +4288,10 @@
         <v>231</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
@@ -4300,6 +4300,9 @@
         <v>4</v>
       </c>
       <c r="G92" t="s">
+        <v>64</v>
+      </c>
+      <c r="H92" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4311,22 +4314,19 @@
         <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
         <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
-        <v>64</v>
-      </c>
-      <c r="H93" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,16 +4340,13 @@
         <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
         <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,13 +4360,13 @@
         <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="E95" t="s">
         <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4380,7 +4377,7 @@
         <v>235</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
         <v>107</v>
@@ -4389,7 +4386,7 @@
         <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -4403,13 +4400,13 @@
         <v>137</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="E97" t="s">
         <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4420,16 +4417,19 @@
         <v>237</v>
       </c>
       <c r="C98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -4443,16 +4443,13 @@
         <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4460,19 +4457,19 @@
         <v>44803</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s">
         <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="E100" t="s">
         <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -4486,13 +4483,13 @@
         <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
         <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -4506,13 +4503,13 @@
         <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4523,16 +4520,16 @@
         <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E103" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -4546,18 +4543,18 @@
         <v>137</v>
       </c>
       <c r="D104" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="E104" t="s">
         <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B105" t="s">
         <v>245</v>
@@ -4566,13 +4563,22 @@
         <v>137</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>36</v>
+      </c>
+      <c r="I105" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -4586,22 +4592,13 @@
         <v>137</v>
       </c>
       <c r="D106" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
         <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" t="s">
-        <v>36</v>
-      </c>
-      <c r="I106" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4612,16 +4609,16 @@
         <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4635,13 +4632,13 @@
         <v>143</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
         <v>26</v>
       </c>
       <c r="F108" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4652,16 +4649,28 @@
         <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E109" t="s">
         <v>26</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>52</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>56</v>
+      </c>
+      <c r="J109" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4672,28 +4681,16 @@
         <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E110" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" t="s">
-        <v>52</v>
-      </c>
-      <c r="H110" t="s">
-        <v>8</v>
-      </c>
-      <c r="I110" t="s">
-        <v>56</v>
-      </c>
-      <c r="J110" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4704,16 +4701,22 @@
         <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4724,22 +4727,19 @@
         <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G112" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4753,16 +4753,13 @@
         <v>143</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>64</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4776,13 +4773,13 @@
         <v>143</v>
       </c>
       <c r="D114" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4793,16 +4790,16 @@
         <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4813,16 +4810,16 @@
         <v>256</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E116" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4833,16 +4830,19 @@
         <v>257</v>
       </c>
       <c r="C117" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="E117" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4853,19 +4853,19 @@
         <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4879,16 +4879,13 @@
         <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,7 +4899,7 @@
         <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -4922,13 +4919,19 @@
         <v>138</v>
       </c>
       <c r="D121" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
         <v>16</v>
+      </c>
+      <c r="H121" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4939,22 +4942,16 @@
         <v>262</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F122" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4968,18 +4965,24 @@
         <v>137</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="E123" t="s">
         <v>30</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B124" t="s">
         <v>264</v>
@@ -4988,19 +4991,13 @@
         <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>36</v>
-      </c>
-      <c r="H124" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5014,7 +5011,7 @@
         <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
         <v>26</v>
@@ -5034,13 +5031,19 @@
         <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E126" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5051,22 +5054,16 @@
         <v>267</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>79</v>
-      </c>
-      <c r="H127" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5080,12 +5077,18 @@
         <v>143</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E128" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5100,19 +5103,16 @@
         <v>143</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G129" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5126,16 +5126,13 @@
         <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5149,13 +5146,22 @@
         <v>143</v>
       </c>
       <c r="D131" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s">
         <v>32</v>
+      </c>
+      <c r="I131" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5169,7 +5175,7 @@
         <v>143</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -5178,13 +5184,16 @@
         <v>4</v>
       </c>
       <c r="G132" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H132" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I132" t="s">
         <v>24</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -5195,28 +5204,19 @@
         <v>273</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E133" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F133" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
-      </c>
-      <c r="H133" t="s">
-        <v>40</v>
-      </c>
-      <c r="I133" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -5227,19 +5227,16 @@
         <v>274</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F134" t="s">
         <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5253,13 +5250,13 @@
         <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E135" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5273,13 +5270,16 @@
         <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
         <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5293,16 +5293,13 @@
         <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E137" t="s">
         <v>22</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
-      </c>
-      <c r="G137" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5313,16 +5310,19 @@
         <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D138" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E138" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="G138" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5336,16 +5336,22 @@
         <v>137</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E139" t="s">
         <v>30</v>
       </c>
       <c r="F139" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="H139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5359,22 +5365,13 @@
         <v>137</v>
       </c>
       <c r="D140" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="E140" t="s">
         <v>30</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
-      </c>
-      <c r="G140" t="s">
-        <v>36</v>
-      </c>
-      <c r="H140" t="s">
-        <v>12</v>
-      </c>
-      <c r="I140" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,13 +5385,19 @@
         <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
         <v>30</v>
       </c>
       <c r="F141" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5405,13 +5408,13 @@
         <v>282</v>
       </c>
       <c r="C142" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
         <v>24</v>
@@ -5421,6 +5424,12 @@
       </c>
       <c r="H142" t="s">
         <v>36</v>
+      </c>
+      <c r="I142" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5434,25 +5443,25 @@
         <v>138</v>
       </c>
       <c r="D143" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E143" t="s">
         <v>34</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G143" t="s">
+        <v>85</v>
+      </c>
+      <c r="H143" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" t="s">
         <v>28</v>
       </c>
-      <c r="H143" t="s">
+      <c r="J143" t="s">
         <v>36</v>
-      </c>
-      <c r="I143" t="s">
-        <v>32</v>
-      </c>
-      <c r="J143" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5466,30 +5475,18 @@
         <v>138</v>
       </c>
       <c r="D144" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E144" t="s">
         <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>4</v>
-      </c>
-      <c r="G144" t="s">
-        <v>85</v>
-      </c>
-      <c r="H144" t="s">
-        <v>12</v>
-      </c>
-      <c r="I144" t="s">
-        <v>28</v>
-      </c>
-      <c r="J144" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B145" t="s">
         <v>285</v>
@@ -5498,13 +5495,13 @@
         <v>138</v>
       </c>
       <c r="D145" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E145" t="s">
         <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5518,13 +5515,16 @@
         <v>138</v>
       </c>
       <c r="D146" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E146" t="s">
         <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="G146" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5546,9 +5546,6 @@
       <c r="F147" t="s">
         <v>40</v>
       </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
@@ -5567,36 +5564,48 @@
         <v>34</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="G148" t="s">
+        <v>28</v>
+      </c>
+      <c r="H148" t="s">
+        <v>36</v>
+      </c>
+      <c r="I148" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B149" t="s">
         <v>289</v>
       </c>
       <c r="C149" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D149" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
+        <v>32</v>
+      </c>
+      <c r="G149" t="s">
         <v>8</v>
       </c>
-      <c r="G149" t="s">
-        <v>28</v>
-      </c>
       <c r="H149" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I149" t="s">
         <v>24</v>
+      </c>
+      <c r="J149" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5607,28 +5616,19 @@
         <v>290</v>
       </c>
       <c r="C150" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D150" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E150" t="s">
         <v>26</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" t="s">
-        <v>16</v>
-      </c>
-      <c r="I150" t="s">
-        <v>24</v>
-      </c>
-      <c r="J150" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5642,16 +5642,13 @@
         <v>143</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E151" t="s">
         <v>26</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
-      </c>
-      <c r="G151" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5662,16 +5659,16 @@
         <v>292</v>
       </c>
       <c r="C152" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D152" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="E152" t="s">
         <v>26</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5685,13 +5682,13 @@
         <v>138</v>
       </c>
       <c r="D153" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E153" t="s">
         <v>26</v>
       </c>
       <c r="F153" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5705,13 +5702,13 @@
         <v>138</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E154" t="s">
         <v>26</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5725,13 +5722,13 @@
         <v>138</v>
       </c>
       <c r="D155" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E155" t="s">
         <v>26</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5745,13 +5742,19 @@
         <v>138</v>
       </c>
       <c r="D156" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E156" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F156" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="G156" t="s">
+        <v>36</v>
+      </c>
+      <c r="H156" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -5765,19 +5768,16 @@
         <v>138</v>
       </c>
       <c r="D157" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>36</v>
-      </c>
-      <c r="H157" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5788,19 +5788,25 @@
         <v>298</v>
       </c>
       <c r="C158" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D158" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="E158" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H158" t="s">
+        <v>12</v>
+      </c>
+      <c r="I158" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5817,19 +5823,13 @@
         <v>29</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
         <v>28</v>
       </c>
       <c r="G159" t="s">
         <v>36</v>
-      </c>
-      <c r="H159" t="s">
-        <v>12</v>
-      </c>
-      <c r="I159" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5843,19 +5843,28 @@
         <v>143</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
       <c r="F160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
         <v>28</v>
       </c>
-      <c r="G160" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>12</v>
+      </c>
+      <c r="I160" t="s">
+        <v>48</v>
+      </c>
+      <c r="J160" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>44809</v>
       </c>
@@ -5863,33 +5872,21 @@
         <v>301</v>
       </c>
       <c r="C161" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D161" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E161" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
-      </c>
-      <c r="G161" t="s">
-        <v>28</v>
-      </c>
-      <c r="H161" t="s">
-        <v>12</v>
-      </c>
-      <c r="I161" t="s">
-        <v>48</v>
-      </c>
-      <c r="J161" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B162" t="s">
         <v>302</v>
@@ -5898,16 +5895,16 @@
         <v>137</v>
       </c>
       <c r="D162" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>44810</v>
       </c>
@@ -5915,19 +5912,19 @@
         <v>303</v>
       </c>
       <c r="C163" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="E163" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>44810</v>
       </c>
@@ -5935,19 +5932,25 @@
         <v>304</v>
       </c>
       <c r="C164" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D164" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E164" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G164" t="s">
+        <v>28</v>
+      </c>
+      <c r="H164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>44810</v>
       </c>
@@ -5955,25 +5958,25 @@
         <v>305</v>
       </c>
       <c r="C165" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D165" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E165" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G165" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H165" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>44810</v>
       </c>
@@ -5984,22 +5987,16 @@
         <v>138</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="E166" t="s">
         <v>22</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>36</v>
-      </c>
-      <c r="H166" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>44810</v>
       </c>
@@ -6010,16 +6007,16 @@
         <v>138</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="E167" t="s">
         <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>44810</v>
       </c>
@@ -6027,19 +6024,22 @@
         <v>308</v>
       </c>
       <c r="C168" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D168" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E168" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>44810</v>
       </c>
@@ -6050,19 +6050,16 @@
         <v>137</v>
       </c>
       <c r="D169" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E169" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>44810</v>
       </c>
@@ -6070,19 +6067,19 @@
         <v>310</v>
       </c>
       <c r="C170" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D170" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>44810</v>
       </c>
@@ -6093,16 +6090,19 @@
         <v>138</v>
       </c>
       <c r="D171" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E171" t="s">
         <v>34</v>
       </c>
       <c r="F171" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>44810</v>
       </c>
@@ -6110,45 +6110,42 @@
         <v>312</v>
       </c>
       <c r="C172" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D172" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F172" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B173" t="s">
         <v>313</v>
       </c>
       <c r="C173" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D173" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
-      </c>
-      <c r="G173" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>44811</v>
       </c>
@@ -6159,36 +6156,39 @@
         <v>138</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E174" t="s">
         <v>22</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B175" t="s">
         <v>315</v>
       </c>
       <c r="C175" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>44812</v>
       </c>
@@ -6196,19 +6196,16 @@
         <v>316</v>
       </c>
       <c r="C176" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D176" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E176" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
         <v>60</v>
-      </c>
-      <c r="G176" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6222,13 +6219,13 @@
         <v>143</v>
       </c>
       <c r="D177" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -6239,16 +6236,16 @@
         <v>318</v>
       </c>
       <c r="C178" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D178" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6262,33 +6259,33 @@
         <v>138</v>
       </c>
       <c r="D179" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <v>44812</v>
+        <v>44816</v>
       </c>
       <c r="B180" t="s">
         <v>320</v>
       </c>
       <c r="C180" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D180" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6302,13 +6299,19 @@
         <v>137</v>
       </c>
       <c r="D181" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E181" t="s">
         <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="G181" t="s">
+        <v>28</v>
+      </c>
+      <c r="H181" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6322,19 +6325,19 @@
         <v>137</v>
       </c>
       <c r="D182" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E182" t="s">
         <v>26</v>
       </c>
       <c r="F182" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G182" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H182" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -6345,22 +6348,16 @@
         <v>323</v>
       </c>
       <c r="C183" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D183" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="E183" t="s">
         <v>26</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s">
-        <v>79</v>
-      </c>
-      <c r="H183" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6374,13 +6371,13 @@
         <v>143</v>
       </c>
       <c r="D184" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6394,13 +6391,19 @@
         <v>143</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G185" t="s">
+        <v>24</v>
+      </c>
+      <c r="H185" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6411,21 +6414,27 @@
         <v>326</v>
       </c>
       <c r="C186" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D186" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G186" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H186" t="s">
+        <v>40</v>
+      </c>
+      <c r="I186" t="s">
+        <v>48</v>
+      </c>
+      <c r="J186" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6440,25 +6449,25 @@
         <v>137</v>
       </c>
       <c r="D187" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
+        <v>32</v>
+      </c>
+      <c r="H187" t="s">
+        <v>24</v>
+      </c>
+      <c r="I187" t="s">
+        <v>12</v>
+      </c>
+      <c r="J187" t="s">
         <v>28</v>
-      </c>
-      <c r="G187" t="s">
-        <v>36</v>
-      </c>
-      <c r="H187" t="s">
-        <v>40</v>
-      </c>
-      <c r="I187" t="s">
-        <v>48</v>
-      </c>
-      <c r="J187" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6469,28 +6478,25 @@
         <v>328</v>
       </c>
       <c r="C188" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D188" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H188" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I188" t="s">
-        <v>12</v>
-      </c>
-      <c r="J188" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6501,25 +6507,16 @@
         <v>329</v>
       </c>
       <c r="C189" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D189" t="s">
         <v>101</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>36</v>
-      </c>
-      <c r="H189" t="s">
-        <v>40</v>
-      </c>
-      <c r="I189" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -6533,13 +6530,13 @@
         <v>138</v>
       </c>
       <c r="D190" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E190" t="s">
         <v>26</v>
       </c>
       <c r="F190" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6553,13 +6550,13 @@
         <v>138</v>
       </c>
       <c r="D191" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E191" t="s">
         <v>26</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -6573,13 +6570,13 @@
         <v>138</v>
       </c>
       <c r="D192" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E192" t="s">
         <v>26</v>
       </c>
       <c r="F192" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6596,10 +6593,22 @@
         <v>29</v>
       </c>
       <c r="E193" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="G193" t="s">
+        <v>82</v>
+      </c>
+      <c r="H193" t="s">
+        <v>28</v>
+      </c>
+      <c r="I193" t="s">
+        <v>36</v>
+      </c>
+      <c r="J193" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6610,28 +6619,16 @@
         <v>334</v>
       </c>
       <c r="C194" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="E194" t="s">
         <v>22</v>
       </c>
       <c r="F194" t="s">
-        <v>70</v>
-      </c>
-      <c r="G194" t="s">
-        <v>82</v>
-      </c>
-      <c r="H194" t="s">
-        <v>28</v>
-      </c>
-      <c r="I194" t="s">
-        <v>36</v>
-      </c>
-      <c r="J194" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -6642,16 +6639,16 @@
         <v>335</v>
       </c>
       <c r="C195" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D195" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E195" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6662,16 +6659,19 @@
         <v>336</v>
       </c>
       <c r="C196" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D196" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="G196" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6685,16 +6685,13 @@
         <v>138</v>
       </c>
       <c r="D197" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="E197" t="s">
         <v>22</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
-      </c>
-      <c r="G197" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6705,74 +6702,74 @@
         <v>338</v>
       </c>
       <c r="C198" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="E198" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
+        <v>28</v>
+      </c>
+      <c r="I198" t="s">
+        <v>36</v>
+      </c>
+      <c r="J198" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B199" t="s">
         <v>339</v>
       </c>
       <c r="C199" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D199" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
+        <v>32</v>
+      </c>
+      <c r="G199" t="s">
         <v>24</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
       <c r="H199" t="s">
-        <v>28</v>
-      </c>
-      <c r="I199" t="s">
-        <v>36</v>
-      </c>
-      <c r="J199" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
+      <c r="A200" s="8">
         <v>44817</v>
       </c>
       <c r="B200" t="s">
         <v>340</v>
       </c>
       <c r="C200" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F200" t="s">
         <v>32</v>
-      </c>
-      <c r="G200" t="s">
-        <v>24</v>
-      </c>
-      <c r="H200" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -6783,16 +6780,16 @@
         <v>341</v>
       </c>
       <c r="C201" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D201" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E201" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6803,16 +6800,16 @@
         <v>342</v>
       </c>
       <c r="C202" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D202" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6826,13 +6823,13 @@
         <v>138</v>
       </c>
       <c r="D203" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E203" t="s">
         <v>26</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6843,16 +6840,28 @@
         <v>344</v>
       </c>
       <c r="C204" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D204" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="E204" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="G204" t="s">
+        <v>32</v>
+      </c>
+      <c r="H204" t="s">
+        <v>60</v>
+      </c>
+      <c r="I204" t="s">
+        <v>12</v>
+      </c>
+      <c r="J204" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6863,28 +6872,19 @@
         <v>345</v>
       </c>
       <c r="C205" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D205" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
-      </c>
-      <c r="H205" t="s">
-        <v>60</v>
-      </c>
-      <c r="I205" t="s">
-        <v>12</v>
-      </c>
-      <c r="J205" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -6898,16 +6898,25 @@
         <v>138</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E206" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F206" t="s">
         <v>28</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
+      </c>
+      <c r="H206" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206" t="s">
+        <v>32</v>
+      </c>
+      <c r="J206" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -6921,25 +6930,13 @@
         <v>138</v>
       </c>
       <c r="D207" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E207" t="s">
         <v>22</v>
       </c>
       <c r="F207" t="s">
-        <v>28</v>
-      </c>
-      <c r="G207" t="s">
-        <v>36</v>
-      </c>
-      <c r="H207" t="s">
-        <v>85</v>
-      </c>
-      <c r="I207" t="s">
-        <v>32</v>
-      </c>
-      <c r="J207" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6950,16 +6947,25 @@
         <v>348</v>
       </c>
       <c r="C208" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D208" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E208" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="G208" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" t="s">
+        <v>28</v>
+      </c>
+      <c r="I208" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -6970,25 +6976,16 @@
         <v>349</v>
       </c>
       <c r="C209" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D209" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
         <v>40</v>
-      </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
-      <c r="H209" t="s">
-        <v>28</v>
-      </c>
-      <c r="I209" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -7002,13 +6999,25 @@
         <v>138</v>
       </c>
       <c r="D210" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
       </c>
       <c r="F210" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" t="s">
+        <v>28</v>
+      </c>
+      <c r="H210" t="s">
+        <v>36</v>
+      </c>
+      <c r="I210" t="s">
         <v>40</v>
+      </c>
+      <c r="J210" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7019,28 +7028,28 @@
         <v>351</v>
       </c>
       <c r="C211" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D211" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G211" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H211" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I211" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="J211" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7054,25 +7063,13 @@
         <v>137</v>
       </c>
       <c r="D212" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
-      </c>
-      <c r="G212" t="s">
-        <v>36</v>
-      </c>
-      <c r="H212" t="s">
-        <v>24</v>
-      </c>
-      <c r="I212" t="s">
-        <v>12</v>
-      </c>
-      <c r="J212" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7089,10 +7086,10 @@
         <v>111</v>
       </c>
       <c r="E213" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7106,18 +7103,21 @@
         <v>137</v>
       </c>
       <c r="D214" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="E214" t="s">
         <v>22</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="G214" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B215" t="s">
         <v>355</v>
@@ -7126,16 +7126,22 @@
         <v>137</v>
       </c>
       <c r="D215" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="E215" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G215" t="s">
         <v>32</v>
+      </c>
+      <c r="H215" t="s">
+        <v>28</v>
+      </c>
+      <c r="I215" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7149,21 +7155,24 @@
         <v>137</v>
       </c>
       <c r="D216" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G216" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H216" t="s">
+        <v>40</v>
+      </c>
+      <c r="I216" t="s">
         <v>28</v>
       </c>
-      <c r="I216" t="s">
+      <c r="J216" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7175,28 +7184,16 @@
         <v>357</v>
       </c>
       <c r="C217" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D217" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E217" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F217" t="s">
-        <v>4</v>
-      </c>
-      <c r="G217" t="s">
-        <v>16</v>
-      </c>
-      <c r="H217" t="s">
-        <v>40</v>
-      </c>
-      <c r="I217" t="s">
-        <v>28</v>
-      </c>
-      <c r="J217" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7210,13 +7207,16 @@
         <v>138</v>
       </c>
       <c r="D218" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E218" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="G218" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7230,16 +7230,13 @@
         <v>138</v>
       </c>
       <c r="D219" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
-      </c>
-      <c r="G219" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -7250,16 +7247,13 @@
         <v>360</v>
       </c>
       <c r="C220" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D220" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E220" t="s">
-        <v>22</v>
-      </c>
-      <c r="F220" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7273,10 +7267,16 @@
         <v>137</v>
       </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E221" t="s">
         <v>30</v>
+      </c>
+      <c r="F221" t="s">
+        <v>32</v>
+      </c>
+      <c r="G221" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -7290,36 +7290,33 @@
         <v>137</v>
       </c>
       <c r="D222" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="E222" t="s">
         <v>30</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
-      </c>
-      <c r="G222" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B223" t="s">
         <v>363</v>
       </c>
       <c r="C223" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D223" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F223" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7333,13 +7330,25 @@
         <v>138</v>
       </c>
       <c r="D224" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="E224" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>70</v>
+        <v>8</v>
+      </c>
+      <c r="G224" t="s">
+        <v>32</v>
+      </c>
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+      <c r="I224" t="s">
+        <v>12</v>
+      </c>
+      <c r="J224" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7353,25 +7362,13 @@
         <v>138</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="E225" t="s">
         <v>34</v>
       </c>
       <c r="F225" t="s">
-        <v>8</v>
-      </c>
-      <c r="G225" t="s">
         <v>32</v>
-      </c>
-      <c r="H225" t="s">
-        <v>24</v>
-      </c>
-      <c r="I225" t="s">
-        <v>12</v>
-      </c>
-      <c r="J225" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7385,13 +7382,13 @@
         <v>138</v>
       </c>
       <c r="D226" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E226" t="s">
         <v>34</v>
       </c>
       <c r="F226" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7402,16 +7399,13 @@
         <v>367</v>
       </c>
       <c r="C227" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="D227" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="E227" t="s">
         <v>34</v>
-      </c>
-      <c r="F227" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -7425,10 +7419,13 @@
         <v>173</v>
       </c>
       <c r="D228" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="E228" t="s">
         <v>34</v>
+      </c>
+      <c r="F228" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7442,42 +7439,45 @@
         <v>173</v>
       </c>
       <c r="D229" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E229" t="s">
         <v>34</v>
       </c>
       <c r="F229" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="G229" t="s">
+        <v>36</v>
+      </c>
+      <c r="H229" t="s">
+        <v>20</v>
+      </c>
+      <c r="I229" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B230" t="s">
         <v>370</v>
       </c>
       <c r="C230" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E230" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F230" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
-      </c>
-      <c r="H230" t="s">
-        <v>20</v>
-      </c>
-      <c r="I230" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7488,19 +7488,16 @@
         <v>371</v>
       </c>
       <c r="C231" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D231" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="E231" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F231" t="s">
-        <v>8</v>
-      </c>
-      <c r="G231" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -7514,13 +7511,13 @@
         <v>138</v>
       </c>
       <c r="D232" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E232" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F232" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7531,16 +7528,28 @@
         <v>373</v>
       </c>
       <c r="C233" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="E233" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="G233" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" t="s">
+        <v>4</v>
+      </c>
+      <c r="I233" t="s">
+        <v>40</v>
+      </c>
+      <c r="J233" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7551,54 +7560,45 @@
         <v>374</v>
       </c>
       <c r="C234" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D234" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="E234" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G234" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
-      </c>
-      <c r="I234" t="s">
-        <v>40</v>
-      </c>
-      <c r="J234" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
-        <v>44820</v>
+        <v>44823</v>
       </c>
       <c r="B235" t="s">
         <v>375</v>
       </c>
       <c r="C235" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D235" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F235" t="s">
         <v>28</v>
       </c>
       <c r="G235" t="s">
         <v>36</v>
-      </c>
-      <c r="H235" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7612,16 +7612,13 @@
         <v>143</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E236" t="s">
         <v>26</v>
       </c>
       <c r="F236" t="s">
-        <v>28</v>
-      </c>
-      <c r="G236" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7632,16 +7629,19 @@
         <v>377</v>
       </c>
       <c r="C237" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D237" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E237" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F237" t="s">
-        <v>4</v>
+        <v>36</v>
+      </c>
+      <c r="G237" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -7652,19 +7652,28 @@
         <v>378</v>
       </c>
       <c r="C238" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D238" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E238" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="G238" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="H238" t="s">
+        <v>52</v>
+      </c>
+      <c r="I238" t="s">
+        <v>32</v>
+      </c>
+      <c r="J238" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7675,28 +7684,16 @@
         <v>379</v>
       </c>
       <c r="C239" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D239" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="E239" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F239" t="s">
-        <v>16</v>
-      </c>
-      <c r="G239" t="s">
-        <v>4</v>
-      </c>
-      <c r="H239" t="s">
-        <v>52</v>
-      </c>
-      <c r="I239" t="s">
-        <v>32</v>
-      </c>
-      <c r="J239" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7707,16 +7704,16 @@
         <v>380</v>
       </c>
       <c r="C240" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D240" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="E240" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F240" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7730,61 +7727,67 @@
         <v>138</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="E241" t="s">
         <v>26</v>
       </c>
       <c r="F241" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
         <v>44823</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="9" t="s">
         <v>382</v>
       </c>
       <c r="C242" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D242" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E242" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+      <c r="H242" t="s">
+        <v>24</v>
+      </c>
+      <c r="I242" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
         <v>44823</v>
       </c>
-      <c r="B243" s="9" t="s">
+      <c r="B243" t="s">
         <v>383</v>
       </c>
       <c r="C243" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D243" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H243" t="s">
-        <v>24</v>
-      </c>
-      <c r="I243" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7796,22 +7799,25 @@
         <v>384</v>
       </c>
       <c r="C244" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D244" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="E244" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F244" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G244" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H244" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="I244" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -7822,24 +7828,27 @@
         <v>385</v>
       </c>
       <c r="C245" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D245" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="E245" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F245" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G245" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H245" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I245" t="s">
+        <v>48</v>
+      </c>
+      <c r="J245" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7854,25 +7863,19 @@
         <v>138</v>
       </c>
       <c r="D246" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E246" t="s">
         <v>22</v>
       </c>
       <c r="F246" t="s">
+        <v>82</v>
+      </c>
+      <c r="G246" t="s">
         <v>28</v>
       </c>
-      <c r="G246" t="s">
-        <v>36</v>
-      </c>
       <c r="H246" t="s">
-        <v>60</v>
-      </c>
-      <c r="I246" t="s">
-        <v>48</v>
-      </c>
-      <c r="J246" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -7886,19 +7889,19 @@
         <v>138</v>
       </c>
       <c r="D247" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="E247" t="s">
         <v>22</v>
       </c>
       <c r="F247" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="G247" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H247" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -7912,39 +7915,42 @@
         <v>138</v>
       </c>
       <c r="D248" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="E248" t="s">
         <v>22</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
-      </c>
-      <c r="G248" t="s">
-        <v>36</v>
-      </c>
-      <c r="H248" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B249" t="s">
         <v>389</v>
       </c>
       <c r="C249" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D249" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E249" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F249" t="s">
-        <v>32</v>
+        <v>4</v>
+      </c>
+      <c r="G249" t="s">
+        <v>28</v>
+      </c>
+      <c r="H249" t="s">
+        <v>36</v>
+      </c>
+      <c r="I249" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -7958,7 +7964,7 @@
         <v>137</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="E250" t="s">
         <v>14</v>
@@ -7967,12 +7973,6 @@
         <v>4</v>
       </c>
       <c r="G250" t="s">
-        <v>28</v>
-      </c>
-      <c r="H250" t="s">
-        <v>36</v>
-      </c>
-      <c r="I250" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7987,16 +7987,19 @@
         <v>137</v>
       </c>
       <c r="D251" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E251" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F251" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="H251" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8007,22 +8010,28 @@
         <v>392</v>
       </c>
       <c r="C252" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D252" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E252" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F252" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" t="s">
+        <v>28</v>
+      </c>
+      <c r="H252" t="s">
         <v>36</v>
       </c>
-      <c r="G252" t="s">
-        <v>8</v>
-      </c>
-      <c r="H252" t="s">
-        <v>73</v>
+      <c r="I252" t="s">
+        <v>24</v>
+      </c>
+      <c r="J252" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -8036,25 +8045,22 @@
         <v>138</v>
       </c>
       <c r="D253" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
       </c>
       <c r="F253" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G253" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H253" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I253" t="s">
-        <v>24</v>
-      </c>
-      <c r="J253" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -8068,22 +8074,13 @@
         <v>138</v>
       </c>
       <c r="D254" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E254" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F254" t="s">
-        <v>28</v>
-      </c>
-      <c r="G254" t="s">
-        <v>36</v>
-      </c>
-      <c r="H254" t="s">
-        <v>60</v>
-      </c>
-      <c r="I254" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -8097,13 +8094,25 @@
         <v>138</v>
       </c>
       <c r="D255" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="E255" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F255" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="G255" t="s">
+        <v>36</v>
+      </c>
+      <c r="H255" t="s">
+        <v>4</v>
+      </c>
+      <c r="I255" t="s">
+        <v>32</v>
+      </c>
+      <c r="J255" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -8117,48 +8126,36 @@
         <v>138</v>
       </c>
       <c r="D256" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="E256" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F256" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
-        <v>36</v>
-      </c>
-      <c r="H256" t="s">
-        <v>4</v>
-      </c>
-      <c r="I256" t="s">
-        <v>32</v>
-      </c>
-      <c r="J256" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B257" t="s">
         <v>397</v>
       </c>
       <c r="C257" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D257" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E257" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F257" t="s">
         <v>40</v>
-      </c>
-      <c r="G257" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -8169,7 +8166,7 @@
         <v>398</v>
       </c>
       <c r="C258" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
@@ -8178,7 +8175,7 @@
         <v>14</v>
       </c>
       <c r="F258" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -8192,13 +8189,25 @@
         <v>143</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
       </c>
       <c r="F259" t="s">
+        <v>4</v>
+      </c>
+      <c r="G259" t="s">
+        <v>32</v>
+      </c>
+      <c r="H259" t="s">
+        <v>40</v>
+      </c>
+      <c r="I259" t="s">
         <v>48</v>
+      </c>
+      <c r="J259" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -8209,7 +8218,7 @@
         <v>400</v>
       </c>
       <c r="C260" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D260" t="s">
         <v>111</v>
@@ -8218,19 +8227,10 @@
         <v>14</v>
       </c>
       <c r="F260" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G260" t="s">
-        <v>32</v>
-      </c>
-      <c r="H260" t="s">
-        <v>40</v>
-      </c>
-      <c r="I260" t="s">
-        <v>48</v>
-      </c>
-      <c r="J260" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -8244,16 +8244,13 @@
         <v>137</v>
       </c>
       <c r="D261" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
-      </c>
-      <c r="G261" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -8264,16 +8261,22 @@
         <v>402</v>
       </c>
       <c r="C262" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D262" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="G262" t="s">
+        <v>16</v>
+      </c>
+      <c r="H262" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -8284,22 +8287,16 @@
         <v>403</v>
       </c>
       <c r="C263" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D263" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="E263" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F263" t="s">
         <v>4</v>
-      </c>
-      <c r="G263" t="s">
-        <v>16</v>
-      </c>
-      <c r="H263" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -8313,7 +8310,7 @@
         <v>137</v>
       </c>
       <c r="D264" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="E264" t="s">
         <v>22</v>
@@ -8333,13 +8330,13 @@
         <v>137</v>
       </c>
       <c r="D265" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="E265" t="s">
         <v>22</v>
       </c>
       <c r="F265" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -8353,13 +8350,13 @@
         <v>137</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E266" t="s">
         <v>22</v>
       </c>
       <c r="F266" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -8370,36 +8367,36 @@
         <v>407</v>
       </c>
       <c r="C267" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D267" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="E267" t="s">
         <v>22</v>
       </c>
       <c r="F267" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="8">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B268" t="s">
         <v>408</v>
       </c>
       <c r="C268" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D268" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E268" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F268" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -8413,13 +8410,13 @@
         <v>137</v>
       </c>
       <c r="D269" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="E269" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F269" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -8433,13 +8430,10 @@
         <v>137</v>
       </c>
       <c r="D270" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E270" t="s">
-        <v>22</v>
-      </c>
-      <c r="F270" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -8450,13 +8444,16 @@
         <v>411</v>
       </c>
       <c r="C271" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D271" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="E271" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F271" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -8470,16 +8467,22 @@
         <v>138</v>
       </c>
       <c r="D272" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E272" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F272" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G272" t="s">
+        <v>4</v>
+      </c>
+      <c r="H272" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
         <v>44826</v>
       </c>
@@ -8490,22 +8493,16 @@
         <v>138</v>
       </c>
       <c r="D273" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="E273" t="s">
         <v>34</v>
       </c>
       <c r="F273" t="s">
-        <v>48</v>
-      </c>
-      <c r="G273" t="s">
         <v>4</v>
       </c>
-      <c r="H273" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
         <v>44826</v>
       </c>
@@ -8513,19 +8510,19 @@
         <v>414</v>
       </c>
       <c r="C274" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D274" t="s">
         <v>45</v>
       </c>
       <c r="E274" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F274" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
         <v>44826</v>
       </c>
@@ -8533,42 +8530,45 @@
         <v>415</v>
       </c>
       <c r="C275" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D275" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E275" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F275" t="s">
+        <v>4</v>
+      </c>
+      <c r="G275" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B276" t="s">
         <v>416</v>
       </c>
       <c r="C276" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D276" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E276" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F276" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" t="s">
         <v>4</v>
       </c>
-      <c r="G276" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
         <v>44827</v>
       </c>
@@ -8579,19 +8579,19 @@
         <v>137</v>
       </c>
       <c r="D277" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E277" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F277" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G277" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8">
         <v>44827</v>
       </c>
@@ -8599,22 +8599,22 @@
         <v>418</v>
       </c>
       <c r="C278" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D278" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="E278" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F278" t="s">
+        <v>24</v>
+      </c>
+      <c r="G278" t="s">
         <v>12</v>
       </c>
-      <c r="G278" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
         <v>44827</v>
       </c>
@@ -8625,40 +8625,17 @@
         <v>138</v>
       </c>
       <c r="D279" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E279" t="s">
         <v>34</v>
       </c>
       <c r="F279" t="s">
-        <v>24</v>
-      </c>
-      <c r="G279" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="8">
-        <v>44827</v>
-      </c>
-      <c r="B280" t="s">
-        <v>420</v>
-      </c>
-      <c r="C280" t="s">
-        <v>138</v>
-      </c>
-      <c r="D280" t="s">
-        <v>41</v>
-      </c>
-      <c r="E280" t="s">
-        <v>34</v>
-      </c>
-      <c r="F280" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K280" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K279" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
@@ -8677,15 +8654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CA055D7B43CB7419EB33CE46DECFB6B" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45e5190158379cbed2e72a24731d3f02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3da683f-a0db-4096-acd9-53a5b471ce97" xmlns:ns3="472e3545-f2f9-45a4-a835-21f36fafbe41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8abf491b97c7162b5ed8f2adfd2a5616" ns2:_="" ns3:_="">
     <xsd:import namespace="a3da683f-a0db-4096-acd9-53a5b471ce97"/>
@@ -8928,15 +8896,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1B257B-7FC0-4703-BDC6-674A21545D5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E54936-EC2D-4178-A86C-976D286367BE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8953,4 +8922,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC1B257B-7FC0-4703-BDC6-674A21545D5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>